--- a/longhu.xlsx
+++ b/longhu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="255">
   <si>
     <t>code</t>
   </si>
@@ -46,6 +46,240 @@
     <t>date</t>
   </si>
   <si>
+    <t>002457</t>
+  </si>
+  <si>
+    <t>青龙管业</t>
+  </si>
+  <si>
+    <t>10.034</t>
+  </si>
+  <si>
+    <t>11811.65</t>
+  </si>
+  <si>
+    <t>7649.73</t>
+  </si>
+  <si>
+    <t>4161.92</t>
+  </si>
+  <si>
+    <t>日涨幅偏离值达到7%的前五只证券</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>2017-08-01</t>
+  </si>
+  <si>
+    <t>9.9691</t>
+  </si>
+  <si>
+    <t>20662.66</t>
+  </si>
+  <si>
+    <t>13165.22</t>
+  </si>
+  <si>
+    <t>7497.44</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>2017-08-02</t>
+  </si>
+  <si>
+    <t>27311.86</t>
+  </si>
+  <si>
+    <t>18626.63</t>
+  </si>
+  <si>
+    <t>8685.23</t>
+  </si>
+  <si>
+    <t>连续三个交易日内，涨幅偏离值累计达到20%的证券</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>日换手率达到20%的前五只证券</t>
+  </si>
+  <si>
+    <t>9.9789</t>
+  </si>
+  <si>
+    <t>26468.63</t>
+  </si>
+  <si>
+    <t>13665.26</t>
+  </si>
+  <si>
+    <t>12803.37</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>2017-08-03</t>
+  </si>
+  <si>
+    <t>300676</t>
+  </si>
+  <si>
+    <t>华大基因</t>
+  </si>
+  <si>
+    <t>9.9921</t>
+  </si>
+  <si>
+    <t>735.26</t>
+  </si>
+  <si>
+    <t>706.68</t>
+  </si>
+  <si>
+    <t>28.58</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>2017-07-31</t>
+  </si>
+  <si>
+    <t>1205.19</t>
+  </si>
+  <si>
+    <t>1171.67</t>
+  </si>
+  <si>
+    <t>33.52</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>9.9946</t>
+  </si>
+  <si>
+    <t>828.13</t>
+  </si>
+  <si>
+    <t>791.63</t>
+  </si>
+  <si>
+    <t>36.50</t>
+  </si>
+  <si>
+    <t>9.9951</t>
+  </si>
+  <si>
+    <t>709.31</t>
+  </si>
+  <si>
+    <t>674.59</t>
+  </si>
+  <si>
+    <t>34.72</t>
+  </si>
+  <si>
+    <t>1508.09</t>
+  </si>
+  <si>
+    <t>1466.22</t>
+  </si>
+  <si>
+    <t>41.87</t>
+  </si>
+  <si>
+    <t>300681</t>
+  </si>
+  <si>
+    <t>英搏尔</t>
+  </si>
+  <si>
+    <t>10.012</t>
+  </si>
+  <si>
+    <t>87.98</t>
+  </si>
+  <si>
+    <t>76.93</t>
+  </si>
+  <si>
+    <t>11.04</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>9.9973</t>
+  </si>
+  <si>
+    <t>428.79</t>
+  </si>
+  <si>
+    <t>408.54</t>
+  </si>
+  <si>
+    <t>20.25</t>
+  </si>
+  <si>
+    <t>10.0025</t>
+  </si>
+  <si>
+    <t>5152.16</t>
+  </si>
+  <si>
+    <t>4505.19</t>
+  </si>
+  <si>
+    <t>646.96</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>5561.51</t>
+  </si>
+  <si>
+    <t>4913.74</t>
+  </si>
+  <si>
+    <t>647.77</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>3.1657</t>
+  </si>
+  <si>
+    <t>4956.69</t>
+  </si>
+  <si>
+    <t>3071.96</t>
+  </si>
+  <si>
+    <t>1884.73</t>
+  </si>
+  <si>
     <t>603505</t>
   </si>
   <si>
@@ -67,15 +301,9 @@
     <t>有价格涨跌幅限制的日换手率达到20%的前三只证券</t>
   </si>
   <si>
-    <t>0.11</t>
-  </si>
-  <si>
     <t>0.09</t>
   </si>
   <si>
-    <t>2017-07-31</t>
-  </si>
-  <si>
     <t>9.9955</t>
   </si>
   <si>
@@ -91,12 +319,6 @@
     <t>有价格涨跌幅限制的日价格振幅达到15%的前三只证券</t>
   </si>
   <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>2017-08-01</t>
-  </si>
-  <si>
     <t>20946.21</t>
   </si>
   <si>
@@ -112,6 +334,126 @@
     <t>0.08</t>
   </si>
   <si>
+    <t>0.8187</t>
+  </si>
+  <si>
+    <t>11875.40</t>
+  </si>
+  <si>
+    <t>5254.11</t>
+  </si>
+  <si>
+    <t>6621.29</t>
+  </si>
+  <si>
+    <t>300679</t>
+  </si>
+  <si>
+    <t>电连技术</t>
+  </si>
+  <si>
+    <t>44.0047</t>
+  </si>
+  <si>
+    <t>317.55</t>
+  </si>
+  <si>
+    <t>282.44</t>
+  </si>
+  <si>
+    <t>35.11</t>
+  </si>
+  <si>
+    <t>无价格涨跌幅限制的证券</t>
+  </si>
+  <si>
+    <t>9.998</t>
+  </si>
+  <si>
+    <t>230.37</t>
+  </si>
+  <si>
+    <t>197.12</t>
+  </si>
+  <si>
+    <t>33.25</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>10.0028</t>
+  </si>
+  <si>
+    <t>15996.59</t>
+  </si>
+  <si>
+    <t>13590.31</t>
+  </si>
+  <si>
+    <t>2406.28</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>000615</t>
+  </si>
+  <si>
+    <t>京汉股份</t>
+  </si>
+  <si>
+    <t>9.9638</t>
+  </si>
+  <si>
+    <t>16952.06</t>
+  </si>
+  <si>
+    <t>11129.42</t>
+  </si>
+  <si>
+    <t>5822.64</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>9.9671</t>
+  </si>
+  <si>
+    <t>29993.12</t>
+  </si>
+  <si>
+    <t>15305.46</t>
+  </si>
+  <si>
+    <t>14687.66</t>
+  </si>
+  <si>
+    <t>36031.95</t>
+  </si>
+  <si>
+    <t>20992.35</t>
+  </si>
+  <si>
+    <t>15039.59</t>
+  </si>
+  <si>
+    <t>1.2734</t>
+  </si>
+  <si>
+    <t>24423.37</t>
+  </si>
+  <si>
+    <t>5294.73</t>
+  </si>
+  <si>
+    <t>19128.64</t>
+  </si>
+  <si>
     <t>002753</t>
   </si>
   <si>
@@ -130,15 +472,6 @@
     <t>5560.00</t>
   </si>
   <si>
-    <t>日涨幅偏离值达到7%的前五只证券</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>日换手率达到20%的前五只证券</t>
-  </si>
-  <si>
     <t>-3.1368</t>
   </si>
   <si>
@@ -151,61 +484,127 @@
     <t>4062.60</t>
   </si>
   <si>
-    <t>0.10</t>
-  </si>
-  <si>
-    <t>300676</t>
-  </si>
-  <si>
-    <t>华大基因</t>
-  </si>
-  <si>
-    <t>9.9921</t>
-  </si>
-  <si>
-    <t>735.26</t>
-  </si>
-  <si>
-    <t>706.68</t>
-  </si>
-  <si>
-    <t>28.58</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>1205.19</t>
-  </si>
-  <si>
-    <t>1171.67</t>
-  </si>
-  <si>
-    <t>33.52</t>
-  </si>
-  <si>
-    <t>连续三个交易日内，涨幅偏离值累计达到20%的证券</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>9.9946</t>
-  </si>
-  <si>
-    <t>828.13</t>
-  </si>
-  <si>
-    <t>791.63</t>
-  </si>
-  <si>
-    <t>36.50</t>
-  </si>
-  <si>
-    <t>0.05</t>
+    <t>-4.3416</t>
+  </si>
+  <si>
+    <t>9098.20</t>
+  </si>
+  <si>
+    <t>3569.68</t>
+  </si>
+  <si>
+    <t>5528.51</t>
+  </si>
+  <si>
+    <t>300649</t>
+  </si>
+  <si>
+    <t>杭州园林</t>
+  </si>
+  <si>
+    <t>-1.2766</t>
+  </si>
+  <si>
+    <t>6570.78</t>
+  </si>
+  <si>
+    <t>2556.46</t>
+  </si>
+  <si>
+    <t>4014.32</t>
+  </si>
+  <si>
+    <t>-0.7615</t>
+  </si>
+  <si>
+    <t>5064.97</t>
+  </si>
+  <si>
+    <t>1683.45</t>
+  </si>
+  <si>
+    <t>3381.52</t>
+  </si>
+  <si>
+    <t>5.2121</t>
+  </si>
+  <si>
+    <t>5460.07</t>
+  </si>
+  <si>
+    <t>3314.93</t>
+  </si>
+  <si>
+    <t>2145.14</t>
+  </si>
+  <si>
+    <t>-1.9128</t>
+  </si>
+  <si>
+    <t>3811.50</t>
+  </si>
+  <si>
+    <t>1872.61</t>
+  </si>
+  <si>
+    <t>1938.89</t>
+  </si>
+  <si>
+    <t>603320</t>
+  </si>
+  <si>
+    <t>迪贝电气</t>
+  </si>
+  <si>
+    <t>-9.9906</t>
+  </si>
+  <si>
+    <t>27171.53</t>
+  </si>
+  <si>
+    <t>8901.30</t>
+  </si>
+  <si>
+    <t>18270.22</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>有价格涨跌幅限制的日收盘价格跌幅偏离值达到7%的前三只证券</t>
+  </si>
+  <si>
+    <t>-10.0026</t>
+  </si>
+  <si>
+    <t>1633.75</t>
+  </si>
+  <si>
+    <t>327.71</t>
+  </si>
+  <si>
+    <t>1306.03</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>30360.08</t>
+  </si>
+  <si>
+    <t>11595.30</t>
+  </si>
+  <si>
+    <t>18764.78</t>
+  </si>
+  <si>
+    <t>非ST、*ST和S证券连续三个交易日内收盘价格跌幅偏离值累计达到20%的证券</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>0.30</t>
   </si>
   <si>
     <t>002182</t>
@@ -226,9 +625,6 @@
     <t>37011.99</t>
   </si>
   <si>
-    <t>0.07</t>
-  </si>
-  <si>
     <t>29141.42</t>
   </si>
   <si>
@@ -250,40 +646,139 @@
     <t>9824.70</t>
   </si>
   <si>
-    <t>002882</t>
-  </si>
-  <si>
-    <t>金龙羽</t>
-  </si>
-  <si>
-    <t>-7.4316</t>
-  </si>
-  <si>
-    <t>6082.58</t>
-  </si>
-  <si>
-    <t>2356.68</t>
-  </si>
-  <si>
-    <t>3725.90</t>
-  </si>
-  <si>
-    <t>日跌幅偏离值达到7%的前五只证券</t>
-  </si>
-  <si>
-    <t>-2.7617</t>
-  </si>
-  <si>
-    <t>6140.50</t>
-  </si>
-  <si>
-    <t>1742.05</t>
-  </si>
-  <si>
-    <t>4398.45</t>
-  </si>
-  <si>
-    <t>0.12</t>
+    <t>-4.2274</t>
+  </si>
+  <si>
+    <t>22612.56</t>
+  </si>
+  <si>
+    <t>8335.07</t>
+  </si>
+  <si>
+    <t>14277.49</t>
+  </si>
+  <si>
+    <t>300372</t>
+  </si>
+  <si>
+    <t>欣泰退</t>
+  </si>
+  <si>
+    <t>-1.7341</t>
+  </si>
+  <si>
+    <t>509.18</t>
+  </si>
+  <si>
+    <t>268.61</t>
+  </si>
+  <si>
+    <t>240.58</t>
+  </si>
+  <si>
+    <t>退市整理期</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>-10</t>
+  </si>
+  <si>
+    <t>795.56</t>
+  </si>
+  <si>
+    <t>344.61</t>
+  </si>
+  <si>
+    <t>450.95</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>-9.8039</t>
+  </si>
+  <si>
+    <t>645.95</t>
+  </si>
+  <si>
+    <t>251.37</t>
+  </si>
+  <si>
+    <t>394.58</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>526.41</t>
+  </si>
+  <si>
+    <t>234.55</t>
+  </si>
+  <si>
+    <t>291.86</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>300671</t>
+  </si>
+  <si>
+    <t>富满电子</t>
+  </si>
+  <si>
+    <t>-2.8169</t>
+  </si>
+  <si>
+    <t>5607.90</t>
+  </si>
+  <si>
+    <t>3117.57</t>
+  </si>
+  <si>
+    <t>2490.33</t>
+  </si>
+  <si>
+    <t>-4.8913</t>
+  </si>
+  <si>
+    <t>3950.06</t>
+  </si>
+  <si>
+    <t>1466.55</t>
+  </si>
+  <si>
+    <t>2483.51</t>
+  </si>
+  <si>
+    <t>-1.9048</t>
+  </si>
+  <si>
+    <t>2999.00</t>
+  </si>
+  <si>
+    <t>1783.11</t>
+  </si>
+  <si>
+    <t>1215.89</t>
+  </si>
+  <si>
+    <t>1.6311</t>
+  </si>
+  <si>
+    <t>4745.16</t>
+  </si>
+  <si>
+    <t>2814.90</t>
+  </si>
+  <si>
+    <t>1930.26</t>
   </si>
 </sst>
 </file>
@@ -632,7 +1127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -674,7 +1169,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -709,7 +1204,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -730,10 +1225,10 @@
         <v>23</v>
       </c>
       <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
         <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
       </c>
       <c r="J3" t="s">
         <v>25</v>
@@ -744,7 +1239,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -771,7 +1266,7 @@
         <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s">
         <v>26</v>
@@ -779,7 +1274,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -800,10 +1295,10 @@
         <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" t="s">
         <v>25</v>
@@ -814,13 +1309,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -835,27 +1330,27 @@
         <v>37</v>
       </c>
       <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
         <v>38</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s">
         <v>39</v>
-      </c>
-      <c r="J6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
@@ -870,65 +1365,65 @@
         <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s">
         <v>39</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J8" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="K8" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
         <v>49</v>
@@ -940,30 +1435,30 @@
         <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" t="s">
         <v>52</v>
       </c>
-      <c r="J9" t="s">
-        <v>53</v>
-      </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
         <v>54</v>
@@ -975,13 +1470,13 @@
         <v>56</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="K10" t="s">
         <v>19</v>
@@ -989,34 +1484,34 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
         <v>46</v>
       </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" t="s">
-        <v>52</v>
-      </c>
       <c r="J11" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="K11" t="s">
         <v>26</v>
@@ -1024,42 +1519,42 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="I12" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="J12" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="n">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -1071,30 +1566,30 @@
         <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="K13" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -1103,133 +1598,1498 @@
         <v>65</v>
       </c>
       <c r="D14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" t="s">
         <v>74</v>
       </c>
-      <c r="E14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" t="s">
-        <v>77</v>
-      </c>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I14" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K14" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="I15" t="s">
         <v>79</v>
       </c>
-      <c r="D15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F15" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" t="s">
-        <v>84</v>
-      </c>
-      <c r="I15" t="s">
-        <v>63</v>
-      </c>
       <c r="J15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K15" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
         <v>80</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>81</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>82</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" t="s">
         <v>83</v>
       </c>
-      <c r="H16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" t="s">
-        <v>63</v>
-      </c>
       <c r="J16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="K16" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" t="s">
+        <v>95</v>
+      </c>
+      <c r="K18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" t="s">
+        <v>105</v>
+      </c>
+      <c r="J20" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" t="s">
+        <v>109</v>
+      </c>
+      <c r="H22" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" t="s">
+        <v>105</v>
+      </c>
+      <c r="K22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" t="s">
+        <v>115</v>
+      </c>
+      <c r="H23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" t="s">
+        <v>119</v>
+      </c>
+      <c r="G24" t="s">
+        <v>120</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" t="s">
+        <v>121</v>
+      </c>
+      <c r="K24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s">
+        <v>126</v>
+      </c>
+      <c r="K25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s">
+        <v>126</v>
+      </c>
+      <c r="K26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" t="s">
+        <v>125</v>
+      </c>
+      <c r="H27" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s">
+        <v>126</v>
+      </c>
+      <c r="K27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" t="s">
+        <v>132</v>
+      </c>
+      <c r="H28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" t="s">
+        <v>133</v>
+      </c>
+      <c r="J28" t="s">
+        <v>134</v>
+      </c>
+      <c r="K28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" t="s">
+        <v>138</v>
+      </c>
+      <c r="H29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" t="s">
+        <v>139</v>
+      </c>
+      <c r="F30" t="s">
+        <v>140</v>
+      </c>
+      <c r="G30" t="s">
+        <v>141</v>
+      </c>
+      <c r="H30" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" t="s">
+        <v>95</v>
+      </c>
+      <c r="K30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E31" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" t="s">
+        <v>138</v>
+      </c>
+      <c r="H31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" t="s">
+        <v>144</v>
+      </c>
+      <c r="G32" t="s">
+        <v>145</v>
+      </c>
+      <c r="H32" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" t="s">
+        <v>47</v>
+      </c>
+      <c r="J32" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" t="s">
+        <v>148</v>
+      </c>
+      <c r="E33" t="s">
+        <v>149</v>
+      </c>
+      <c r="F33" t="s">
+        <v>150</v>
+      </c>
+      <c r="G33" t="s">
+        <v>151</v>
+      </c>
+      <c r="H33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" t="s">
+        <v>105</v>
+      </c>
+      <c r="K33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" t="s">
+        <v>149</v>
+      </c>
+      <c r="F34" t="s">
+        <v>150</v>
+      </c>
+      <c r="G34" t="s">
+        <v>151</v>
+      </c>
+      <c r="H34" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" t="s">
+        <v>105</v>
+      </c>
+      <c r="K34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" t="s">
+        <v>152</v>
+      </c>
+      <c r="E35" t="s">
+        <v>153</v>
+      </c>
+      <c r="F35" t="s">
+        <v>154</v>
+      </c>
+      <c r="G35" t="s">
+        <v>155</v>
+      </c>
+      <c r="H35" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" t="s">
+        <v>38</v>
+      </c>
+      <c r="J35" t="s">
+        <v>105</v>
+      </c>
+      <c r="K35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>146</v>
+      </c>
+      <c r="C36" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" t="s">
+        <v>156</v>
+      </c>
+      <c r="E36" t="s">
+        <v>157</v>
+      </c>
+      <c r="F36" t="s">
+        <v>158</v>
+      </c>
+      <c r="G36" t="s">
+        <v>159</v>
+      </c>
+      <c r="H36" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" t="s">
+        <v>105</v>
+      </c>
+      <c r="K36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" t="s">
+        <v>161</v>
+      </c>
+      <c r="D37" t="s">
+        <v>162</v>
+      </c>
+      <c r="E37" t="s">
+        <v>163</v>
+      </c>
+      <c r="F37" t="s">
+        <v>164</v>
+      </c>
+      <c r="G37" t="s">
+        <v>165</v>
+      </c>
+      <c r="H37" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" t="s">
+        <v>105</v>
+      </c>
+      <c r="J37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" t="s">
+        <v>161</v>
+      </c>
+      <c r="D38" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" t="s">
+        <v>167</v>
+      </c>
+      <c r="F38" t="s">
+        <v>168</v>
+      </c>
+      <c r="G38" t="s">
+        <v>169</v>
+      </c>
+      <c r="H38" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" t="s">
+        <v>31</v>
+      </c>
+      <c r="K38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B39" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" t="s">
+        <v>170</v>
+      </c>
+      <c r="E39" t="s">
+        <v>171</v>
+      </c>
+      <c r="F39" t="s">
+        <v>172</v>
+      </c>
+      <c r="G39" t="s">
+        <v>173</v>
+      </c>
+      <c r="H39" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" t="s">
+        <v>95</v>
+      </c>
+      <c r="J39" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" t="s">
+        <v>174</v>
+      </c>
+      <c r="E40" t="s">
+        <v>175</v>
+      </c>
+      <c r="F40" t="s">
+        <v>176</v>
+      </c>
+      <c r="G40" t="s">
+        <v>177</v>
+      </c>
+      <c r="H40" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" t="s">
+        <v>32</v>
+      </c>
+      <c r="K40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B41" t="s">
+        <v>178</v>
+      </c>
+      <c r="C41" t="s">
+        <v>179</v>
+      </c>
+      <c r="D41" t="s">
+        <v>180</v>
+      </c>
+      <c r="E41" t="s">
+        <v>181</v>
+      </c>
+      <c r="F41" t="s">
+        <v>182</v>
+      </c>
+      <c r="G41" t="s">
+        <v>183</v>
+      </c>
+      <c r="H41" t="s">
+        <v>100</v>
+      </c>
+      <c r="I41" t="s">
+        <v>184</v>
+      </c>
+      <c r="J41" t="s">
         <v>79</v>
       </c>
-      <c r="D17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" t="s">
-        <v>88</v>
-      </c>
-      <c r="H17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" t="s">
-        <v>63</v>
-      </c>
-      <c r="J17" t="s">
-        <v>89</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="K41" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B42" t="s">
+        <v>178</v>
+      </c>
+      <c r="C42" t="s">
+        <v>179</v>
+      </c>
+      <c r="D42" t="s">
+        <v>180</v>
+      </c>
+      <c r="E42" t="s">
+        <v>181</v>
+      </c>
+      <c r="F42" t="s">
+        <v>182</v>
+      </c>
+      <c r="G42" t="s">
+        <v>183</v>
+      </c>
+      <c r="H42" t="s">
+        <v>185</v>
+      </c>
+      <c r="I42" t="s">
+        <v>184</v>
+      </c>
+      <c r="J42" t="s">
+        <v>79</v>
+      </c>
+      <c r="K42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" t="s">
+        <v>179</v>
+      </c>
+      <c r="D43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E43" t="s">
+        <v>187</v>
+      </c>
+      <c r="F43" t="s">
+        <v>188</v>
+      </c>
+      <c r="G43" t="s">
+        <v>189</v>
+      </c>
+      <c r="H43" t="s">
+        <v>185</v>
+      </c>
+      <c r="I43" t="s">
+        <v>184</v>
+      </c>
+      <c r="J43" t="s">
+        <v>190</v>
+      </c>
+      <c r="K43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" t="s">
+        <v>179</v>
+      </c>
+      <c r="D44" t="s">
+        <v>186</v>
+      </c>
+      <c r="E44" t="s">
+        <v>191</v>
+      </c>
+      <c r="F44" t="s">
+        <v>192</v>
+      </c>
+      <c r="G44" t="s">
+        <v>193</v>
+      </c>
+      <c r="H44" t="s">
+        <v>194</v>
+      </c>
+      <c r="I44" t="s">
+        <v>195</v>
+      </c>
+      <c r="J44" t="s">
+        <v>196</v>
+      </c>
+      <c r="K44" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>197</v>
+      </c>
+      <c r="C45" t="s">
+        <v>198</v>
+      </c>
+      <c r="D45" t="s">
+        <v>199</v>
+      </c>
+      <c r="E45" t="s">
+        <v>200</v>
+      </c>
+      <c r="F45" t="s">
+        <v>201</v>
+      </c>
+      <c r="G45" t="s">
+        <v>202</v>
+      </c>
+      <c r="H45" t="s">
+        <v>30</v>
+      </c>
+      <c r="I45" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>197</v>
+      </c>
+      <c r="C46" t="s">
+        <v>198</v>
+      </c>
+      <c r="D46" t="s">
+        <v>199</v>
+      </c>
+      <c r="E46" t="s">
+        <v>203</v>
+      </c>
+      <c r="F46" t="s">
+        <v>204</v>
+      </c>
+      <c r="G46" t="s">
+        <v>205</v>
+      </c>
+      <c r="H46" t="s">
+        <v>33</v>
+      </c>
+      <c r="I46" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" t="s">
+        <v>38</v>
+      </c>
+      <c r="K46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>197</v>
+      </c>
+      <c r="C47" t="s">
+        <v>198</v>
+      </c>
+      <c r="D47" t="s">
+        <v>206</v>
+      </c>
+      <c r="E47" t="s">
+        <v>207</v>
+      </c>
+      <c r="F47" t="s">
+        <v>208</v>
+      </c>
+      <c r="G47" t="s">
+        <v>209</v>
+      </c>
+      <c r="H47" t="s">
+        <v>33</v>
+      </c>
+      <c r="I47" t="s">
+        <v>105</v>
+      </c>
+      <c r="J47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>197</v>
+      </c>
+      <c r="C48" t="s">
+        <v>198</v>
+      </c>
+      <c r="D48" t="s">
+        <v>210</v>
+      </c>
+      <c r="E48" t="s">
+        <v>211</v>
+      </c>
+      <c r="F48" t="s">
+        <v>212</v>
+      </c>
+      <c r="G48" t="s">
+        <v>213</v>
+      </c>
+      <c r="H48" t="s">
+        <v>33</v>
+      </c>
+      <c r="I48" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48" t="s">
+        <v>105</v>
+      </c>
+      <c r="K48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B49" t="s">
+        <v>214</v>
+      </c>
+      <c r="C49" t="s">
+        <v>215</v>
+      </c>
+      <c r="D49" t="s">
+        <v>216</v>
+      </c>
+      <c r="E49" t="s">
+        <v>217</v>
+      </c>
+      <c r="F49" t="s">
+        <v>218</v>
+      </c>
+      <c r="G49" t="s">
+        <v>219</v>
+      </c>
+      <c r="H49" t="s">
+        <v>220</v>
+      </c>
+      <c r="I49" t="s">
+        <v>221</v>
+      </c>
+      <c r="J49" t="s">
+        <v>222</v>
+      </c>
+      <c r="K49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s">
+        <v>214</v>
+      </c>
+      <c r="C50" t="s">
+        <v>215</v>
+      </c>
+      <c r="D50" t="s">
+        <v>223</v>
+      </c>
+      <c r="E50" t="s">
+        <v>224</v>
+      </c>
+      <c r="F50" t="s">
+        <v>225</v>
+      </c>
+      <c r="G50" t="s">
+        <v>226</v>
+      </c>
+      <c r="H50" t="s">
+        <v>220</v>
+      </c>
+      <c r="I50" t="s">
+        <v>133</v>
+      </c>
+      <c r="J50" t="s">
+        <v>227</v>
+      </c>
+      <c r="K50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B51" t="s">
+        <v>214</v>
+      </c>
+      <c r="C51" t="s">
+        <v>215</v>
+      </c>
+      <c r="D51" t="s">
+        <v>228</v>
+      </c>
+      <c r="E51" t="s">
+        <v>229</v>
+      </c>
+      <c r="F51" t="s">
+        <v>230</v>
+      </c>
+      <c r="G51" t="s">
+        <v>231</v>
+      </c>
+      <c r="H51" t="s">
+        <v>220</v>
+      </c>
+      <c r="I51" t="s">
+        <v>184</v>
+      </c>
+      <c r="J51" t="s">
+        <v>227</v>
+      </c>
+      <c r="K51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B52" t="s">
+        <v>214</v>
+      </c>
+      <c r="C52" t="s">
+        <v>215</v>
+      </c>
+      <c r="D52" t="s">
+        <v>232</v>
+      </c>
+      <c r="E52" t="s">
+        <v>233</v>
+      </c>
+      <c r="F52" t="s">
+        <v>234</v>
+      </c>
+      <c r="G52" t="s">
+        <v>235</v>
+      </c>
+      <c r="H52" t="s">
+        <v>220</v>
+      </c>
+      <c r="I52" t="s">
+        <v>196</v>
+      </c>
+      <c r="J52" t="s">
+        <v>236</v>
+      </c>
+      <c r="K52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B53" t="s">
+        <v>237</v>
+      </c>
+      <c r="C53" t="s">
+        <v>238</v>
+      </c>
+      <c r="D53" t="s">
+        <v>239</v>
+      </c>
+      <c r="E53" t="s">
+        <v>240</v>
+      </c>
+      <c r="F53" t="s">
+        <v>241</v>
+      </c>
+      <c r="G53" t="s">
+        <v>242</v>
+      </c>
+      <c r="H53" t="s">
+        <v>33</v>
+      </c>
+      <c r="I53" t="s">
+        <v>24</v>
+      </c>
+      <c r="J53" t="s">
+        <v>31</v>
+      </c>
+      <c r="K53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B54" t="s">
+        <v>237</v>
+      </c>
+      <c r="C54" t="s">
+        <v>238</v>
+      </c>
+      <c r="D54" t="s">
+        <v>243</v>
+      </c>
+      <c r="E54" t="s">
+        <v>244</v>
+      </c>
+      <c r="F54" t="s">
+        <v>245</v>
+      </c>
+      <c r="G54" t="s">
+        <v>246</v>
+      </c>
+      <c r="H54" t="s">
+        <v>33</v>
+      </c>
+      <c r="I54" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" t="s">
+        <v>38</v>
+      </c>
+      <c r="K54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B55" t="s">
+        <v>237</v>
+      </c>
+      <c r="C55" t="s">
+        <v>238</v>
+      </c>
+      <c r="D55" t="s">
+        <v>247</v>
+      </c>
+      <c r="E55" t="s">
+        <v>248</v>
+      </c>
+      <c r="F55" t="s">
+        <v>249</v>
+      </c>
+      <c r="G55" t="s">
+        <v>250</v>
+      </c>
+      <c r="H55" t="s">
+        <v>33</v>
+      </c>
+      <c r="I55" t="s">
+        <v>31</v>
+      </c>
+      <c r="J55" t="s">
+        <v>105</v>
+      </c>
+      <c r="K55" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B56" t="s">
+        <v>237</v>
+      </c>
+      <c r="C56" t="s">
+        <v>238</v>
+      </c>
+      <c r="D56" t="s">
+        <v>251</v>
+      </c>
+      <c r="E56" t="s">
+        <v>252</v>
+      </c>
+      <c r="F56" t="s">
+        <v>253</v>
+      </c>
+      <c r="G56" t="s">
+        <v>254</v>
+      </c>
+      <c r="H56" t="s">
+        <v>33</v>
+      </c>
+      <c r="I56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J56" t="s">
+        <v>95</v>
+      </c>
+      <c r="K56" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
